--- a/Banco Central/3/5/Tasas on-shore 2021 - Diaria.xlsx
+++ b/Banco Central/3/5/Tasas on-shore 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Serie</t>
   </si>
@@ -452,6 +452,21 @@
   </si>
   <si>
     <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -809,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2817,6 +2832,76 @@
         <v>0.11</v>
       </c>
     </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144">
+        <v>-0.5</v>
+      </c>
+      <c r="C144">
+        <v>-0.23</v>
+      </c>
+      <c r="D144">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>-0.4</v>
+      </c>
+      <c r="C145">
+        <v>-0.17</v>
+      </c>
+      <c r="D145">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146">
+        <v>-0.36</v>
+      </c>
+      <c r="C146">
+        <v>-0.17</v>
+      </c>
+      <c r="D146">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147">
+        <v>-0.39</v>
+      </c>
+      <c r="C147">
+        <v>-0.16</v>
+      </c>
+      <c r="D147">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>-0.34</v>
+      </c>
+      <c r="C148">
+        <v>-0.13</v>
+      </c>
+      <c r="D148">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/3/5/Tasas on-shore 2021 - Diaria.xlsx
+++ b/Banco Central/3/5/Tasas on-shore 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2902,6 +2905,20 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149">
+        <v>-0.27</v>
+      </c>
+      <c r="C149">
+        <v>-0.05</v>
+      </c>
+      <c r="D149">
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
